--- a/biology/Botanique/Phylica/Phylica.xlsx
+++ b/biology/Botanique/Phylica/Phylica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phylica est un genre de plantes à fleurs de la famille des Rhamnacées qui comprend environ 150 espèces. La plupart sont africaines et près de 140 espèces sont spécialement endémiques de la Province du Cap en Afrique du Sud. Ce sont des arbustes ou de petits arbres.
 Les espèces qui ne sont pas africaines ou malgaches occupent diverses îles de l'Océan Indien et de l'Atlantique Sud. Ainsi, la seule plante ligneuse arborescente naturellement présente dans les Terres Australes et Antarctiques Françaises se trouve sur l'île Amsterdam (Océan Indien) et appartient au genre Phylica. De même dans le groupe Tristan da Cunha (Océan Atlantique), ne poussent que deux espèces arborescentes indigènes, dont un Phylica. Il existe aussi des Phylica  aux Mascareignes (Réunion et Maurice), et à l'île de Sainte-Hélène.
@@ -516,9 +528,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 Sep 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 Sep 2010) :
 Phylica arborea
 Phylica buxifolia
 Phylica cryptandroides
